--- a/report_publication_dates/FSR_dates.xlsx
+++ b/report_publication_dates/FSR_dates.xlsx
@@ -1,42 +1,49 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28730"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0f9501e142f3e28/LSE Data Analytics/Employer Project/Employer Project files/group-project/report_publication_dates/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="2" documentId="11_364663355C82C8D5AE678C0F5507EA1E67FF6D35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73AD5379-B9E9-4354-A147-14E1A703AC5E}"/>
+  <bookViews>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>May 2020 (Interim)</t>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="mmmm yyyy"/>
+    <numFmt numFmtId="164" formatCode="mmmm\ yyyy"/>
   </numFmts>
-  <fonts count="3">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
-      <sz val="10.0"/>
+      <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
@@ -47,45 +54,49 @@
       <patternFill patternType="none"/>
     </fill>
     <fill>
-      <patternFill patternType="lightGray"/>
+      <patternFill patternType="gray125"/>
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment horizontal="right" readingOrder="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment horizontal="center" readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
-      <alignment readingOrder="0"/>
-    </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
-    </xf>
+    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle xfId="0" name="Normal" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheets">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Sheets">
   <a:themeElements>
     <a:clrScheme name="Sheets">
       <a:dk1>
@@ -275,286 +286,291 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
   </sheetPr>
+  <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
+      <selection activeCell="B42" sqref="B42"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="20.5"/>
-    <col customWidth="1" min="2" max="2" width="31.38"/>
+    <col min="1" max="1" width="20.42578125" customWidth="1"/>
+    <col min="2" max="2" width="31.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="1">
-        <v>35490.0</v>
+        <v>35490</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="2">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="1">
-        <v>35704.0</v>
-      </c>
-    </row>
-    <row r="3">
+        <v>35704</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="1">
-        <v>35916.0</v>
-      </c>
-    </row>
-    <row r="4">
+        <v>35916</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="1">
-        <v>36100.0</v>
-      </c>
-    </row>
-    <row r="5">
+        <v>36100</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3">
-        <v>36312.0</v>
-      </c>
-    </row>
-    <row r="6">
+        <v>36312</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3">
-        <v>36465.0</v>
-      </c>
-    </row>
-    <row r="7">
+        <v>36465</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3">
-        <v>36678.0</v>
-      </c>
-    </row>
-    <row r="8">
+        <v>36678</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3">
-        <v>36861.0</v>
-      </c>
-    </row>
-    <row r="9">
+        <v>36861</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3">
-        <v>37043.0</v>
-      </c>
-    </row>
-    <row r="10">
+        <v>37043</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3">
-        <v>37226.0</v>
-      </c>
-    </row>
-    <row r="11">
+        <v>37226</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3">
-        <v>37408.0</v>
+        <v>37408</v>
       </c>
       <c r="B11" s="3"/>
     </row>
-    <row r="12">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3">
-        <v>37591.0</v>
-      </c>
-    </row>
-    <row r="13">
+        <v>37591</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3">
-        <v>37773.0</v>
-      </c>
-    </row>
-    <row r="14">
+        <v>37773</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3">
-        <v>37956.0</v>
-      </c>
-    </row>
-    <row r="15">
+        <v>37956</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3">
-        <v>38139.0</v>
-      </c>
-    </row>
-    <row r="16">
+        <v>38139</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3">
-        <v>38322.0</v>
-      </c>
-    </row>
-    <row r="17">
+        <v>38322</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A17" s="3">
-        <v>38504.0</v>
-      </c>
-    </row>
-    <row r="18">
+        <v>38504</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" s="3">
-        <v>38687.0</v>
-      </c>
-    </row>
-    <row r="19">
+        <v>38687</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" s="3">
-        <v>38899.0</v>
-      </c>
-    </row>
-    <row r="20">
+        <v>38899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A20" s="3">
-        <v>39173.0</v>
-      </c>
-    </row>
-    <row r="21">
+        <v>39173</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" s="3">
-        <v>39356.0</v>
-      </c>
-    </row>
-    <row r="22">
+        <v>39356</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" s="3">
-        <v>39569.0</v>
-      </c>
-    </row>
-    <row r="23">
+        <v>39569</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A23" s="3">
-        <v>39722.0</v>
-      </c>
-    </row>
-    <row r="24">
+        <v>39722</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A24" s="3">
-        <v>39965.0</v>
-      </c>
-    </row>
-    <row r="25">
+        <v>39965</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A25" s="3">
-        <v>40148.0</v>
-      </c>
-    </row>
-    <row r="26">
+        <v>40148</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A26" s="3">
-        <v>40330.0</v>
-      </c>
-    </row>
-    <row r="27">
+        <v>40330</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A27" s="3">
-        <v>40513.0</v>
-      </c>
-    </row>
-    <row r="28">
+        <v>40513</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A28" s="3">
-        <v>40695.0</v>
-      </c>
-    </row>
-    <row r="29">
+        <v>40695</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A29" s="3">
-        <v>40878.0</v>
-      </c>
-    </row>
-    <row r="30">
+        <v>40878</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A30" s="3">
-        <v>41061.0</v>
-      </c>
-    </row>
-    <row r="31">
+        <v>41061</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A31" s="3">
-        <v>41214.0</v>
-      </c>
-    </row>
-    <row r="32">
+        <v>41214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A32" s="3">
-        <v>41426.0</v>
-      </c>
-    </row>
-    <row r="33">
+        <v>41426</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" s="3">
-        <v>41579.0</v>
-      </c>
-    </row>
-    <row r="34">
+        <v>41579</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" s="3">
-        <v>41791.0</v>
-      </c>
-    </row>
-    <row r="35">
+        <v>41791</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" s="3">
-        <v>41974.0</v>
-      </c>
-    </row>
-    <row r="36">
+        <v>41974</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" s="3">
-        <v>42186.0</v>
-      </c>
-    </row>
-    <row r="37">
+        <v>42186</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" s="3">
-        <v>42339.0</v>
-      </c>
-    </row>
-    <row r="38">
+        <v>42339</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" s="3">
-        <v>42552.0</v>
-      </c>
-    </row>
-    <row r="39">
+        <v>42552</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" s="3">
-        <v>42675.0</v>
-      </c>
-    </row>
-    <row r="40">
+        <v>42675</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" s="3">
-        <v>42887.0</v>
-      </c>
-    </row>
-    <row r="41">
+        <v>42887</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" s="3">
-        <v>43040.0</v>
-      </c>
-    </row>
-    <row r="42">
+        <v>43040</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" s="3">
-        <v>43252.0</v>
-      </c>
-    </row>
-    <row r="43">
+        <v>43252</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A43" s="3">
-        <v>43405.0</v>
-      </c>
-    </row>
-    <row r="44">
+        <v>43405</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A44" s="3">
-        <v>43647.0</v>
-      </c>
-    </row>
-    <row r="45">
+        <v>43647</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A45" s="3">
-        <v>43800.0</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="47">
+        <v>43800</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
+        <v>43952</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A47" s="3">
-        <v>44044.0</v>
-      </c>
-    </row>
-    <row r="48">
+        <v>44044</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A48" s="3">
-        <v>44166.0</v>
-      </c>
-    </row>
-    <row r="49">
+        <v>44166</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" s="3">
-        <v>44378.0</v>
-      </c>
-    </row>
-    <row r="50">
+        <v>44378</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" s="3">
-        <v>44531.0</v>
-      </c>
-    </row>
-    <row r="51">
+        <v>44531</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" s="3">
-        <v>44743.0</v>
-      </c>
-    </row>
-    <row r="52">
+        <v>44743</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" s="3">
-        <v>44896.0</v>
+        <v>44896</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/report_publication_dates/FSR_dates.xlsx
+++ b/report_publication_dates/FSR_dates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/f0f9501e142f3e28/LSE Data Analytics/Employer Project/Employer Project files/group-project/report_publication_dates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="11_364663355C82C8D5AE678C0F5507EA1E67FF6D35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{73AD5379-B9E9-4354-A147-14E1A703AC5E}"/>
+  <xr:revisionPtr revIDLastSave="3" documentId="11_364663355C82C8D5AE678C0F5507EA1E67FF6D35" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1EACE246-CDD1-42FB-918C-4EC1963F3174}"/>
   <bookViews>
     <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,10 +17,6 @@
   </sheets>
   <calcPr calcId="0"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -69,15 +65,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -93,6 +90,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -298,8 +299,8 @@
   </sheetPr>
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="B42" sqref="B42"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A52" sqref="A1:A52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -309,264 +310,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="1">
+      <c r="A1" s="3">
         <v>35490</v>
       </c>
-      <c r="B1" s="2"/>
+      <c r="B1" s="1"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A2" s="1">
+      <c r="A2" s="3">
         <v>35704</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A3" s="1">
+      <c r="A3" s="3">
         <v>35916</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A4" s="1">
+      <c r="A4" s="3">
         <v>36100</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A5" s="3">
+      <c r="A5" s="4">
         <v>36312</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A6" s="3">
+      <c r="A6" s="4">
         <v>36465</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A7" s="3">
+      <c r="A7" s="4">
         <v>36678</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A8" s="3">
+      <c r="A8" s="4">
         <v>36861</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A9" s="3">
+      <c r="A9" s="4">
         <v>37043</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A10" s="3">
+      <c r="A10" s="4">
         <v>37226</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A11" s="3">
+      <c r="A11" s="4">
         <v>37408</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="2"/>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A12" s="3">
+      <c r="A12" s="4">
         <v>37591</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A13" s="3">
+      <c r="A13" s="4">
         <v>37773</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A14" s="3">
+      <c r="A14" s="4">
         <v>37956</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A15" s="3">
+      <c r="A15" s="4">
         <v>38139</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A16" s="3">
+      <c r="A16" s="4">
         <v>38322</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A17" s="3">
+      <c r="A17" s="4">
         <v>38504</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3">
+      <c r="A18" s="4">
         <v>38687</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3">
+      <c r="A19" s="4">
         <v>38899</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A20" s="3">
+      <c r="A20" s="4">
         <v>39173</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3">
+      <c r="A21" s="4">
         <v>39356</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3">
+      <c r="A22" s="4">
         <v>39569</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A23" s="3">
+      <c r="A23" s="4">
         <v>39722</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A24" s="3">
+      <c r="A24" s="4">
         <v>39965</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A25" s="3">
+      <c r="A25" s="4">
         <v>40148</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A26" s="3">
+      <c r="A26" s="4">
         <v>40330</v>
       </c>
     </row>
     <row r="27" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A27" s="3">
+      <c r="A27" s="4">
         <v>40513</v>
       </c>
     </row>
     <row r="28" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A28" s="3">
+      <c r="A28" s="4">
         <v>40695</v>
       </c>
     </row>
     <row r="29" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A29" s="3">
+      <c r="A29" s="4">
         <v>40878</v>
       </c>
     </row>
     <row r="30" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A30" s="3">
+      <c r="A30" s="4">
         <v>41061</v>
       </c>
     </row>
     <row r="31" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A31" s="3">
+      <c r="A31" s="4">
         <v>41214</v>
       </c>
     </row>
     <row r="32" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A32" s="3">
+      <c r="A32" s="4">
         <v>41426</v>
       </c>
     </row>
     <row r="33" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A33" s="3">
+      <c r="A33" s="4">
         <v>41579</v>
       </c>
     </row>
     <row r="34" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A34" s="3">
+      <c r="A34" s="4">
         <v>41791</v>
       </c>
     </row>
     <row r="35" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A35" s="3">
+      <c r="A35" s="4">
         <v>41974</v>
       </c>
     </row>
     <row r="36" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A36" s="3">
+      <c r="A36" s="4">
         <v>42186</v>
       </c>
     </row>
     <row r="37" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A37" s="3">
+      <c r="A37" s="4">
         <v>42339</v>
       </c>
     </row>
     <row r="38" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A38" s="3">
+      <c r="A38" s="4">
         <v>42552</v>
       </c>
     </row>
     <row r="39" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A39" s="3">
+      <c r="A39" s="4">
         <v>42675</v>
       </c>
     </row>
     <row r="40" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A40" s="3">
+      <c r="A40" s="4">
         <v>42887</v>
       </c>
     </row>
     <row r="41" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A41" s="3">
+      <c r="A41" s="4">
         <v>43040</v>
       </c>
     </row>
     <row r="42" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A42" s="3">
+      <c r="A42" s="4">
         <v>43252</v>
       </c>
     </row>
     <row r="43" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A43" s="3">
+      <c r="A43" s="4">
         <v>43405</v>
       </c>
     </row>
     <row r="44" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A44" s="3">
+      <c r="A44" s="4">
         <v>43647</v>
       </c>
     </row>
     <row r="45" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A45" s="3">
+      <c r="A45" s="4">
         <v>43800</v>
       </c>
     </row>
     <row r="46" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A46" s="3">
+      <c r="A46" s="4">
         <v>43952</v>
       </c>
     </row>
     <row r="47" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A47" s="3">
+      <c r="A47" s="4">
         <v>44044</v>
       </c>
     </row>
     <row r="48" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A48" s="3">
+      <c r="A48" s="4">
         <v>44166</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A49" s="3">
+      <c r="A49" s="4">
         <v>44378</v>
       </c>
     </row>
     <row r="50" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A50" s="3">
+      <c r="A50" s="4">
         <v>44531</v>
       </c>
     </row>
     <row r="51" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A51" s="3">
+      <c r="A51" s="4">
         <v>44743</v>
       </c>
     </row>
     <row r="52" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A52" s="3">
+      <c r="A52" s="4">
         <v>44896</v>
       </c>
     </row>
